--- a/MWedit_Noreen_full_new_schnitzcell_fullAnalysis_Template2014-04-04_pos1.xlsx
+++ b/MWedit_Noreen_full_new_schnitzcell_fullAnalysis_Template2014-04-04_pos1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="172">
   <si>
     <t>folder name</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>%Check and start from MW_manualcheckseg again if necessary.</t>
+  </si>
+  <si>
+    <t>% BELOW ONLY APPLICABLE FOR FLUOR MEASUREMENT</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -855,11 +858,12 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K677"/>
+  <dimension ref="A1:K679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1206,10 +1210,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1547,10 +1551,10 @@
       <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="55"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -1641,10 +1645,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="55"/>
+      <c r="B54" s="54"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
@@ -1701,10 +1705,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="55"/>
+      <c r="B62" s="54"/>
       <c r="D62" s="47"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1889,1041 +1893,1034 @@
         <v>DJK_addToSchnitzes_mu(p, 'frameSizes', [11]);</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="54"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C98" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="26"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="C99" s="26"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C98" s="26"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="C99" s="26"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
       <c r="C100" s="26"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="13"/>
       <c r="C101" s="26"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="13"/>
+      <c r="C102" s="26"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="26"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="26"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="C104" s="26"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C105" s="27" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="27"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="27"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="27"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="26"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
+      <c r="C108" s="27"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="26"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C108" s="26"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="35"/>
+      <c r="C110" s="26"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="26"/>
+        <v>66</v>
+      </c>
+      <c r="C112" s="35"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C113" s="26"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C114" s="26"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" s="26"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="26"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C115" s="26"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="C117" s="26"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="26"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="str">
+      <c r="C118" s="26"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="str">
         <f>CONCATENATE("schnitzcells = DJK_addToSchnitzes_cycleCor( schnitzcells, 'muP",$B$27,"_fitNew', 'phase2_atR');")</f>
         <v>schnitzcells = DJK_addToSchnitzes_cycleCor( schnitzcells, 'muP11_fitNew', 'phase2_atR');</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C119" s="27" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="str">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="str">
         <f>CONCATENATE("schnitzcells=PN_addToSchnitzes_Phase_at_TimeField_Mu(schnitzcells,'muP",$B$27,"_fitNew_all','dR5_time','muP",$B$27,"_fitNew_atdR5');")</f>
         <v>schnitzcells=PN_addToSchnitzes_Phase_at_TimeField_Mu(schnitzcells,'muP11_fitNew_all','dR5_time','muP11_fitNew_atdR5');</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="str">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="str">
         <f>CONCATENATE("schnitzcells = DJK_addToSchnitzes_cycleCor( schnitzcells, 'muP",$B$27,"_fitNew_atdR5', 'phase2_at_dR5_time');")</f>
         <v>schnitzcells = DJK_addToSchnitzes_cycleCor( schnitzcells, 'muP11_fitNew_atdR5', 'phase2_at_dR5_time');</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="str">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="str">
         <f>CONCATENATE("schnitzcells=PN_addToSchnitzes_Phase_at_TimeField_Mu(schnitzcells,'muP",$B$27,"_fitNew_all','time_atdR','muP",$B$27,"_fitNew_atdR5sumdt');")</f>
         <v>schnitzcells=PN_addToSchnitzes_Phase_at_TimeField_Mu(schnitzcells,'muP11_fitNew_all','time_atdR','muP11_fitNew_atdR5sumdt');</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="str">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="str">
         <f>CONCATENATE("schnitzcells = DJK_addToSchnitzes_cycleCor( schnitzcells, 'muP",$B$27,"_fitNew_atdR5sumdt', 'phase2_atdR');")</f>
         <v>schnitzcells = DJK_addToSchnitzes_cycleCor( schnitzcells, 'muP11_fitNew_atdR5sumdt', 'phase2_atdR');</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C132" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="38"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="J135" s="38"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="40" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="38"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B136" s="40"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="38"/>
-      <c r="J136" s="38"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="str">
+      <c r="B138" s="40"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="38"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="str">
         <f>CONCATENATE("p = DJK_initschnitz('",B$3,"crop','",B$2,"','e.coli.AMOLF','rootDir','",B$4,"\', 'cropLeftTop', ", B$10,", 'cropRightBottom', ", B$11,",'fluor1','",B$6,"','fluor2','",B$7,"','fluor3','",B$8,"');")</f>
         <v>p = DJK_initschnitz('pos1crop','2014-04-04','e.coli.AMOLF','rootDir','D:\MICROSCOPE_EXPERIMENTS\To_Analyze\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040],'fluor1','none','fluor2','none','fluor3','none');</v>
       </c>
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+      <c r="B139" s="6"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="14" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="str">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="str">
         <f>CONCATENATE("slowschnitzes=NW_detectSlowSchnitzes(p,schnitzcells,'muP", $B$27, "_fitNew','muThreshold',0.05);")</f>
         <v>slowschnitzes=NW_detectSlowSchnitzes(p,schnitzcells,'muP11_fitNew','muThreshold',0.05);</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="16" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="str">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$22, ";")</f>
         <v>fitTime = [0 300];</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="47"/>
-    </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="D148" s="47" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-      <c r="C149" s="36"/>
+      <c r="A149" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="47"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
+      <c r="C151" s="36"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C150" s="25"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="str">
+      <c r="C152" s="25"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="str">
         <f>CONCATENATE("for i=", B$28,", s_rm(i).useForPlot=0; end;")</f>
         <v>for i=[], s_rm(i).useForPlot=0; end;</v>
       </c>
-      <c r="C151" s="36" t="s">
+      <c r="C153" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C154" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="C155" s="36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="20" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D157" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C158" s="24"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C159" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="D159" s="47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C160" s="24"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C161" s="24"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C162" s="24"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C161" s="26"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B162" s="4"/>
-      <c r="C162" s="26"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B163" s="4"/>
       <c r="C163" s="26"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="21" t="s">
+      <c r="B164" s="4"/>
+      <c r="C164" s="26"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="4"/>
+      <c r="C165" s="26"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="26"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="str">
+      <c r="B166" s="3"/>
+      <c r="C166" s="26"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="str">
         <f>CONCATENATE("schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP",$B$27,"_fitNew_cycCor', 'G6_mean_cycCor'}, 'fitTime', fitTime);")</f>
         <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP11_fitNew_cycCor', 'G6_mean_cycCor'}, 'fitTime', fitTime);</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C167" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="str">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP",$B$27,"_fitNew_cycCor', 'G6_mean_cycCor', 'R_time', 'xlim', [0 300], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'muP11_fitNew_cycCor', 'G6_mean_cycCor', 'R_time', 'xlim', [0 300], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="C166" s="27"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="str">
+      <c r="C168" s="27"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'noise_muP",$B$27,"_fitNew_cycCor', 'noise_G6_mean_cycCor', 'R_time', 'xlim', [-150 150], 'ylim', [-1.1 1.1], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP11_fitNew_cycCor', 'noise_G6_mean_cycCor', 'R_time', 'xlim', [-150 150], 'ylim', [-1.1 1.1], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="27"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="str">
+      <c r="B169" s="4"/>
+      <c r="C169" s="27"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="str">
         <f>CONCATENATE("DJK_plot_time_hist(p, schnitzData, 'G6_mean_cycCor', ",[1]pos5_B!B$29,", 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'onScreen', 0,'binCenters',[0:3:300],'timeField','R_time');")</f>
         <v>DJK_plot_time_hist(p, schnitzData, 'G6_mean_cycCor', 0.94, 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'onScreen', 0,'binCenters',[0:3:300],'timeField','R_time');</v>
       </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="27"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="str">
+      <c r="B170" s="4"/>
+      <c r="C170" s="27"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="str">
         <f>CONCATENATE("DJK_plot_time_hist(p, schnitzData, 'muP",$B$27,"_fitNew_cycCor', 0, 'binCenters', [0:0.05:4], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'onScreen', 0,'timeField','R_time');")</f>
         <v>DJK_plot_time_hist(p, schnitzData, 'muP11_fitNew_cycCor', 0, 'binCenters', [0:0.05:4], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'onScreen', 0,'timeField','R_time');</v>
       </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="27"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="27"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="str">
+      <c r="B171" s="4"/>
+      <c r="C171" s="27"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="27"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="str">
         <f>CONCATENATE("schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP",$B$27,"_fitNew_cycCor', 'R6_mean_cycCor'}, 'fitTime', fitTime); ;")</f>
         <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP11_fitNew_cycCor', 'R6_mean_cycCor'}, 'fitTime', fitTime); ;</v>
       </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="27" t="s">
+      <c r="B173" s="4"/>
+      <c r="C173" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="str">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP",$B$27,"_fitNew_cycCor', 'R6_mean_cycCor', 'R_time', 'xlim', [0 300], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'muP11_fitNew_cycCor', 'R6_mean_cycCor', 'R_time', 'xlim', [0 300], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="27"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="str">
+      <c r="B174" s="4"/>
+      <c r="C174" s="27"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'noise_muP",$B$27,"_fitNew_cycCor', 'noise_R6_mean_cycCor', 'R_time', 'xlim', [-200 200], 'ylim', [-1.1 1.1], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP11_fitNew_cycCor', 'noise_R6_mean_cycCor', 'R_time', 'xlim', [-200 200], 'ylim', [-1.1 1.1], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="27"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="str">
+      <c r="B175" s="4"/>
+      <c r="C175" s="27"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="str">
         <f>CONCATENATE("DJK_plot_time_hist(p, schnitzData, 'R6_mean_cycCor', ",0,", 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'onScreen', 0,'binCenters',[0:10:300],'timeField','R_time');")</f>
         <v>DJK_plot_time_hist(p, schnitzData, 'R6_mean_cycCor', 0, 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'onScreen', 0,'binCenters',[0:10:300],'timeField','R_time');</v>
       </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="27"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="4"/>
-      <c r="C175" s="27"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="str">
+      <c r="B176" s="4"/>
+      <c r="C176" s="27"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="4"/>
+      <c r="C177" s="27"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="str">
         <f>CONCATENATE("schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'G6_mean_cycCor', 'R6_mean_cycCor'}, 'fitTime', fitTime);")</f>
         <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'G6_mean_cycCor', 'R6_mean_cycCor'}, 'fitTime', fitTime);</v>
       </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="27" t="s">
+      <c r="B178" s="4"/>
+      <c r="C178" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="str">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'G6_mean_cycCor', 'R6_mean_cycCor', 'R_time', 'xlim', [0 300], 'ylim', [0 200], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'G6_mean_cycCor', 'R6_mean_cycCor', 'R_time', 'xlim', [0 300], 'ylim', [0 200], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="26"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="str">
+      <c r="B179" s="4"/>
+      <c r="C179" s="26"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'noise_G6_mean_cycCor', 'noise_R6_mean_cycCor', 'R_time', 'xlim', [-200 200], 'ylim', [-150 150], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'noise_G6_mean_cycCor', 'noise_R6_mean_cycCor', 'R_time', 'xlim', [-200 200], 'ylim', [-150 150], 'selectionName', [name_rm_fitTime '_Conc_cycCorAuto'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="B178" s="4"/>
-      <c r="C178" s="26"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C179" s="26"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B180" s="4"/>
       <c r="C180" s="26"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C181" s="27" t="s">
-        <v>102</v>
-      </c>
+      <c r="C181" s="26"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C182" s="26"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C183" s="26"/>
+        <v>88</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C184" s="26"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C185" s="26"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C186" s="26"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C187" s="26"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="26"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C187" s="26"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="str">
+      <c r="C189" s="26"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="str">
         <f>CONCATENATE("DJK_plot_time_hist(p, schnitzData, 'dR5_sum_dt_s_cycCor', ",[1]pos5_B!B$29,", 'selectionName', [name_rm_fitTime '_newRates_cycCorAuto'], 'onScreen', 0,'binCenters',[-3000:50:10000],'timeField','R_time');")</f>
         <v>DJK_plot_time_hist(p, schnitzData, 'dR5_sum_dt_s_cycCor', 0.94, 'selectionName', [name_rm_fitTime '_newRates_cycCorAuto'], 'onScreen', 0,'binCenters',[-3000:50:10000],'timeField','R_time');</v>
       </c>
-      <c r="C188" s="26"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+      <c r="C190" s="26"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C189" s="26"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C190" s="26"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C191" s="26"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C192" s="26"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C193" s="26"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C192" s="26"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+      <c r="C194" s="26"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C195" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="str">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="str">
         <f>CONCATENATE("schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP",$B$27,"_fitNew_cycCor', 'dG5_sum_dt_s_cycCor', 'dR5_sum_dt_s_cycCor','dG5_cycCor', 'dR5_cycCor'}, 'fitTime', fitTime);")</f>
         <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP11_fitNew_cycCor', 'dG5_sum_dt_s_cycCor', 'dR5_sum_dt_s_cycCor','dG5_cycCor', 'dR5_cycCor'}, 'fitTime', fitTime);</v>
       </c>
-      <c r="C194" s="26"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="str">
+      <c r="C196" s="26"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP",$B$27,"_fitNew_cycCor', 'dG5_sum_dt_s_cycCor', 'R_time', 'xlim', [-2000 5000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'muP11_fitNew_cycCor', 'dG5_sum_dt_s_cycCor', 'R_time', 'xlim', [-2000 5000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="C195" s="26"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="str">
+      <c r="C197" s="26"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP",$B$27,"_fitNew_cycCor', 'dR5_sum_dt_s_cycCor', 'R_time', 'xlim', [-3000 8000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'muP11_fitNew_cycCor', 'dR5_sum_dt_s_cycCor', 'R_time', 'xlim', [-3000 8000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="C196" s="26"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="str">
+      <c r="C198" s="26"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP",$B$27,"_fitNew_cycCor', 'dG5_cycCor', 'R_time', 'xlim', [-2000 5000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'muP11_fitNew_cycCor', 'dG5_cycCor', 'R_time', 'xlim', [-2000 5000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="C197" s="26"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="str">
+      <c r="C199" s="26"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP",$B$27,"_fitNew_cycCor', 'dR5_cycCor', 'R_time', 'xlim', [-3000 8000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);")</f>
         <v>DJK_plot_scatterColor(p, schnitzData, 'muP11_fitNew_cycCor', 'dR5_cycCor', 'R_time', 'xlim', [-3000 8000], 'ylim', [0 4], 'selectionName', [name_rm_fitTime '_Corr_newRates_Mu'], 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
-      <c r="C198" s="26"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="13"/>
-      <c r="C199" s="26"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="13"/>
       <c r="C200" s="26"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="13"/>
+      <c r="C201" s="26"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="13"/>
+      <c r="C202" s="26"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B201" s="3"/>
-      <c r="C201" s="35"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="str">
+      <c r="B203" s="3"/>
+      <c r="C203" s="35"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$23, "; fitTime = fitTime + [2 -2];")</f>
         <v>fitTime = [0 300]; fitTime = fitTime + [2 -2];</v>
       </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="26"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="26"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="str">
+      <c r="B204" s="4"/>
+      <c r="C204" s="26"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="26"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="str">
         <f>CONCATENATE("branchData = DJK_getBranches(p,s_rm,'dataFields',{'dR5_time'  'R_time'  'muP", $B$27,"_fitNew_atdR5' 'muP", $B$27,"_fitNew_atdR5_cycCor' 'dR5_cycCor'  'dG5_cycCor' 'dG5' 'dR5' }, 'fitTime', fitTime); ")</f>
         <v xml:space="preserve">branchData = DJK_getBranches(p,s_rm,'dataFields',{'dR5_time'  'R_time'  'muP11_fitNew_atdR5' 'muP11_fitNew_atdR5_cycCor' 'dR5_cycCor'  'dG5_cycCor' 'dG5' 'dR5' }, 'fitTime', fitTime); </v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C206" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D204" s="10"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="str">
+      <c r="D206" s="10"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="str">
         <f>CONCATENATE("branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'dR5_time'  'R_time'  'muP", $B$27,"_fitNew_atdR5' 'muP", $B$27,"_fitNew_atdR5_cycCor' 'dR5_cycCor'  'dG5_cycCor' 'dG5' 'dR5' });")</f>
         <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'dR5_time'  'R_time'  'muP11_fitNew_atdR5' 'muP11_fitNew_atdR5_cycCor' 'dR5_cycCor'  'dG5_cycCor' 'dG5' 'dR5' });</v>
       </c>
-      <c r="C205" s="27"/>
-      <c r="D205" s="10"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
+      <c r="C207" s="27"/>
+      <c r="D207" s="10"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C206" s="36"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="C208" s="36"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="18" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C208" s="26"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+      <c r="C210" s="26"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C209" s="27" t="s">
+      <c r="C211" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="str">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dG5_cycCor', 'noise_muP", $B$27,"_fitNew_atdR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dG5_cycCor', 'noise_muP11_fitNew_atdR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="str">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dR5_cycCor', 'noise_muP", $B$27,"_fitNew_atdR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dR5_cycCor', 'noise_muP11_fitNew_atdR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="C211" s="27"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="18" t="str">
+      <c r="C213" s="27"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dG5_cycCor',  'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dG5_cycCor',  'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="C212" s="27"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="18" t="str">
+      <c r="C214" s="27"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dG5_cycCor',  'noise_dG5_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dG5_cycCor',  'noise_dG5_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="C213" s="27"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="18" t="str">
+      <c r="C215" s="27"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dR5_cycCor',  'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_dR5_cycCor',  'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="C214" s="27"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="18" t="s">
+      <c r="C216" s="27"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="18" t="str">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="18" t="str">
         <f>CONCATENATE("branchData = DJK_getBranches(p,s_rm,'dataFields',{'R_time'    'R6_mean_cycCor' ,'G6_mean_cycCor' 'muP", $B$27,"_fitNew_cycCor' }, 'fitTime', fitTime); ")</f>
         <v xml:space="preserve">branchData = DJK_getBranches(p,s_rm,'dataFields',{'R_time'    'R6_mean_cycCor' ,'G6_mean_cycCor' 'muP11_fitNew_cycCor' }, 'fitTime', fitTime); </v>
       </c>
-      <c r="C216" s="27" t="s">
+      <c r="C218" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="18" t="str">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="18" t="str">
         <f>CONCATENATE("branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'R_time'  'R6_mean_cycCor' ,'G6_mean_cycCor' 'muP", $B$27,"_fitNew_cycCor'});")</f>
         <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'R_time'  'R6_mean_cycCor' ,'G6_mean_cycCor' 'muP11_fitNew_cycCor'});</v>
       </c>
-      <c r="C217" s="26"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="18" t="s">
+      <c r="C219" s="26"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C218" s="26"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="18" t="s">
+      <c r="C220" s="26"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="26"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="19" t="s">
+      <c r="B221" s="4"/>
+      <c r="C221" s="26"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B220" s="4"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="18" t="str">
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor', 'noise_muP", $B$27,"_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor', 'noise_muP11_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B221" s="18"/>
-      <c r="C221" s="26"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="18" t="str">
+      <c r="B223" s="18"/>
+      <c r="C223" s="26"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor', 'noise_muP", $B$27,"_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor', 'noise_muP11_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B222" s="18"/>
-      <c r="C222" s="26"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="18" t="str">
+      <c r="B224" s="18"/>
+      <c r="C224" s="26"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor',  'noise_R6_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor',  'noise_R6_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B223" s="18"/>
-      <c r="C223" s="26"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="18" t="str">
+      <c r="B225" s="18"/>
+      <c r="C225" s="26"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor',  'noise_G6_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor',  'noise_G6_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B224" s="18"/>
-      <c r="C224" s="26"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="18" t="str">
+      <c r="B226" s="18"/>
+      <c r="C226" s="26"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor',  'noise_R6_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor',  'noise_R6_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B225" s="18"/>
-      <c r="C225" s="26"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="18" t="str">
+      <c r="B227" s="18"/>
+      <c r="C227" s="26"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_muP",$B$27,"_fitNew_cycCor', 'noise_muP", $B$27,"_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_muP11_fitNew_cycCor', 'noise_muP11_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B226" s="18"/>
-      <c r="C226" s="26"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="18" t="s">
+      <c r="B228" s="18"/>
+      <c r="C228" s="26"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B227" s="18"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="18" t="str">
+      <c r="B229" s="18"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="18" t="str">
         <f>CONCATENATE("branchData = DJK_getBranches(p,s_rm,'dataFields',{'R_time'    'R5_mean_cycCor' ,'G5_mean_cycCor' 'muP", $B$27,"_fitNew_cycCor' }, 'fitTime', fitTime); ")</f>
         <v xml:space="preserve">branchData = DJK_getBranches(p,s_rm,'dataFields',{'R_time'    'R5_mean_cycCor' ,'G5_mean_cycCor' 'muP11_fitNew_cycCor' }, 'fitTime', fitTime); </v>
       </c>
-      <c r="B228" s="18"/>
-      <c r="C228" s="27" t="s">
+      <c r="B230" s="18"/>
+      <c r="C230" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="18" t="str">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="18" t="str">
         <f>CONCATENATE("branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'R_time'  'R5_mean_cycCor' ,'G5_mean_cycCor' 'muP", $B$27,"_fitNew_cycCor'});")</f>
         <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'R_time'  'R5_mean_cycCor' ,'G5_mean_cycCor' 'muP11_fitNew_cycCor'});</v>
       </c>
-      <c r="B229" s="18"/>
-      <c r="C229" s="26"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B230" s="18"/>
-      <c r="C230" s="26"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="B231" s="18"/>
       <c r="C231" s="26"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="19" t="s">
-        <v>93</v>
+      <c r="A232" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B232" s="18"/>
       <c r="C232" s="26"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="18" t="str">
+      <c r="A233" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B233" s="18"/>
+      <c r="C233" s="26"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B234" s="18"/>
+      <c r="C234" s="26"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G5_mean_cycCor', 'noise_muP", $B$27,"_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G5_mean_cycCor', 'noise_muP11_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B233" s="18"/>
-      <c r="C233" s="26"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="18" t="str">
+      <c r="B235" s="18"/>
+      <c r="C235" s="26"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R5_mean_cycCor', 'noise_muP", $B$27,"_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R5_mean_cycCor', 'noise_muP11_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
-      <c r="B234" s="18"/>
-      <c r="C234" s="26"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="18" t="str">
+      <c r="B236" s="18"/>
+      <c r="C236" s="26"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G5_mean_cycCor',  'noise_R5_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G5_mean_cycCor',  'noise_R5_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="18" t="str">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G5_mean_cycCor',  'noise_G5_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G5_mean_cycCor',  'noise_G5_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="18" t="str">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R5_mean_cycCor',  'noise_R5_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R5_mean_cycCor',  'noise_R5_mean_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="18" t="str">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_muP",$B$27,"_fitNew_cycCor', 'noise_muP", $B$27,"_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_muP11_fitNew_cycCor', 'noise_muP11_fitNew_cycCor','selectionName',name_rm_branch,'timeField','R_time');</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="18" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="18" t="str">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="18" t="str">
         <f>CONCATENATE("branchData = DJK_getBranches(p,s_rm,'dataFields',{'dR5_time', 'R_time'    'R5_mean_cycCor'  'R6_mean_cycCor' ,'G6_mean_cycCor' 'muP", $B$27,"_fitNew_cycCor' 'dR5_cycCor','dG5_cycCor' }, 'fitTime', fitTime); ")</f>
         <v xml:space="preserve">branchData = DJK_getBranches(p,s_rm,'dataFields',{'dR5_time', 'R_time'    'R5_mean_cycCor'  'R6_mean_cycCor' ,'G6_mean_cycCor' 'muP11_fitNew_cycCor' 'dR5_cycCor','dG5_cycCor' }, 'fitTime', fitTime); </v>
       </c>
-      <c r="C240" s="27" t="s">
+      <c r="C242" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="18" t="str">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="18" t="str">
         <f>CONCATENATE("branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'dR5_time', 'R_time'    'R6_mean_cycCor'  'R5_mean_cycCor' ,'G6_mean_cycCor' 'muP", $B$27,"_fitNew_cycCor' 'dR5_cycCor','dG5_cycCor' });")</f>
         <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'dR5_time', 'R_time'    'R6_mean_cycCor'  'R5_mean_cycCor' ,'G6_mean_cycCor' 'muP11_fitNew_cycCor' 'dR5_cycCor','dG5_cycCor' });</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="18" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="18" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G243" s="10"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="19" t="s">
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G244" s="10"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="18" t="str">
+      <c r="G246" s="10"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor', 'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor', 'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="18" t="str">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor', 'noise_dG5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor', 'noise_dG5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="18" t="str">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor', 'noise_dG5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_G6_mean_cycCor', 'noise_dG5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="18" t="str">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="18" t="str">
         <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor', 'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');")</f>
         <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean_cycCor', 'noise_dR5_cycCor','selectionName',name_rm_branch,'timeField','dR5_time');</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="42"/>
-      <c r="B250" s="41"/>
-      <c r="C250" s="41"/>
-      <c r="D250" s="41"/>
-      <c r="E250" s="41"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B251" s="41"/>
-      <c r="C251" s="41"/>
-      <c r="D251" s="41"/>
-      <c r="E251" s="41"/>
-    </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="41"/>
+      <c r="A252" s="42"/>
       <c r="B252" s="41"/>
       <c r="C252" s="41"/>
       <c r="D252" s="41"/>
       <c r="E252" s="41"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C253" s="26"/>
+      <c r="A253" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B253" s="41"/>
+      <c r="C253" s="41"/>
+      <c r="D253" s="41"/>
+      <c r="E253" s="41"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="37"/>
-      <c r="B254" s="37"/>
-      <c r="C254" s="37"/>
-      <c r="D254" s="37"/>
-      <c r="E254" s="37"/>
+      <c r="A254" s="41"/>
+      <c r="B254" s="41"/>
+      <c r="C254" s="41"/>
+      <c r="D254" s="41"/>
+      <c r="E254" s="41"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" s="43" t="s">
+      <c r="C255" s="26"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="37"/>
+      <c r="B256" s="37"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B255" s="37"/>
-      <c r="C255" s="37"/>
-      <c r="D255" s="37"/>
-      <c r="E255" s="37"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C256" s="26"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="3"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="35"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
+      <c r="B257" s="37"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="37"/>
+      <c r="E257" s="37"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="35"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
+      <c r="C258" s="26"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="A259" s="3"/>
       <c r="B259" s="4"/>
       <c r="C259" s="35"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
       <c r="C260" s="35"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="4"/>
+      <c r="A261" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="B261" s="4"/>
       <c r="C261" s="35"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B262" s="4"/>
+      <c r="A262" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="C262" s="35"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -2936,9 +2933,8 @@
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="str">
-        <f>CONCATENATE("NW_plot_dependence_on_position(p,'muP",$B$27,"_fitNew_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$260,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic' );")</f>
-        <v>NW_plot_dependence_on_position(p,'muP11_fitNew_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic' );</v>
+      <c r="A264" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="35"/>
@@ -2946,10 +2942,7 @@
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="str">
-        <f>CONCATENATE("NW_plot_dependence_on_position(p,'R6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$260,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
-        <v>NW_plot_dependence_on_position(p,'R6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
-      </c>
+      <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="35"/>
       <c r="D265" s="4"/>
@@ -2957,8 +2950,8 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="str">
-        <f>CONCATENATE("NW_plot_dependence_on_position(p,'dR5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$260,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
-        <v>NW_plot_dependence_on_position(p,'dR5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
+        <f>CONCATENATE("NW_plot_dependence_on_position(p,'muP",$B$27,"_fitNew_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$262,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic' );")</f>
+        <v>NW_plot_dependence_on_position(p,'muP11_fitNew_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic' );</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="35"/>
@@ -2967,8 +2960,8 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="str">
-        <f>CONCATENATE("NW_plot_dependence_on_position(p,'G6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$260,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
-        <v>NW_plot_dependence_on_position(p,'G6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
+        <f>CONCATENATE("NW_plot_dependence_on_position(p,'R6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$262,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
+        <v>NW_plot_dependence_on_position(p,'R6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="35"/>
@@ -2977,8 +2970,8 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="str">
-        <f>CONCATENATE("NW_plot_dependence_on_position(p,'dG5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$260,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
-        <v>NW_plot_dependence_on_position(p,'dG5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
+        <f>CONCATENATE("NW_plot_dependence_on_position(p,'dR5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$262,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
+        <v>NW_plot_dependence_on_position(p,'dR5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="35"/>
@@ -2987,8 +2980,8 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="str">
-        <f>CONCATENATE("NW_plot_dependence_on_position(p,'G5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$260,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
-        <v>NW_plot_dependence_on_position(p,'G5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
+        <f>CONCATENATE("NW_plot_dependence_on_position(p,'G6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$262,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
+        <v>NW_plot_dependence_on_position(p,'G6_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="35"/>
@@ -2997,8 +2990,8 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="str">
-        <f>CONCATENATE("NW_plot_dependence_on_position(p,'R5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$260,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
-        <v>NW_plot_dependence_on_position(p,'R5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
+        <f>CONCATENATE("NW_plot_dependence_on_position(p,'dG5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$262,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
+        <v>NW_plot_dependence_on_position(p,'dG5_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="35"/>
@@ -3006,54 +2999,60 @@
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="4"/>
+      <c r="A271" s="4" t="str">
+        <f>CONCATENATE("NW_plot_dependence_on_position(p,'G5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$262,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
+        <v>NW_plot_dependence_on_position(p,'G5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
+      </c>
       <c r="B271" s="4"/>
       <c r="C271" s="35"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C272" s="4"/>
+      <c r="A272" s="4" t="str">
+        <f>CONCATENATE("NW_plot_dependence_on_position(p,'R5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',",$B$262,",'rm_SchnitzNrs',",$B$28,",'colorRange','automatic'  );")</f>
+        <v>NW_plot_dependence_on_position(p,'R5_mean_cycCor', 'myColorMap',whiteredgreenColormap,'frameRange',[184:-8:130],'rm_SchnitzNrs',[],'colorRange','automatic'  );</v>
+      </c>
+      <c r="B272" s="4"/>
+      <c r="C272" s="35"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="str">
-        <f>CONCATENATE("NW_makeMovie_branchGroups(p,branch_groups,'manualRange',",$B$272,");")</f>
-        <v>NW_makeMovie_branchGroups(p,branch_groups,'manualRange',[1:4:185]);</v>
-      </c>
+      <c r="A273" s="4"/>
       <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
+      <c r="C273" s="35"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="18"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="str">
+        <f>CONCATENATE("NW_makeMovie_branchGroups(p,branch_groups,'manualRange',",$B$274,");")</f>
+        <v>NW_makeMovie_branchGroups(p,branch_groups,'manualRange',[1:4:185]);</v>
+      </c>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="18"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
-      <c r="C311" s="36"/>
+      <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
     </row>
@@ -3067,14 +3066,14 @@
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="39"/>
+      <c r="C313" s="36"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
-      <c r="C314" s="39"/>
+      <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
     </row>
@@ -3094,12 +3093,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
-      <c r="B317" s="11"/>
+      <c r="B317" s="4"/>
       <c r="C317" s="39"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
@@ -3107,12 +3104,10 @@
       <c r="C318" s="39"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
-      <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
+      <c r="B319" s="11"/>
       <c r="C319" s="39"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -3212,7 +3207,7 @@
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
+      <c r="C330" s="39"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
@@ -3221,23 +3216,23 @@
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
-      <c r="C331" s="35"/>
-      <c r="D331" s="11"/>
+      <c r="C331" s="39"/>
+      <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" s="3"/>
+      <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="35"/>
-      <c r="D332" s="11"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" s="3"/>
+      <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="35"/>
       <c r="D333" s="11"/>
@@ -3246,19 +3241,19 @@
       <c r="G333" s="4"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A334" s="4"/>
+      <c r="A334" s="3"/>
       <c r="B334" s="4"/>
       <c r="C334" s="35"/>
-      <c r="D334" s="4"/>
+      <c r="D334" s="11"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A335" s="4"/>
+      <c r="A335" s="3"/>
       <c r="B335" s="4"/>
-      <c r="C335" s="36"/>
-      <c r="D335" s="4"/>
+      <c r="C335" s="35"/>
+      <c r="D335" s="11"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -3266,7 +3261,7 @@
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
-      <c r="C336" s="36"/>
+      <c r="C336" s="35"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
@@ -3282,9 +3277,9 @@
       <c r="G337" s="4"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A338" s="18"/>
+      <c r="A338" s="4"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="35"/>
+      <c r="C338" s="36"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
@@ -3293,14 +3288,14 @@
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="35"/>
+      <c r="C339" s="36"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A340" s="4"/>
+      <c r="A340" s="18"/>
       <c r="B340" s="4"/>
       <c r="C340" s="35"/>
       <c r="D340" s="4"/>
@@ -3356,7 +3351,7 @@
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
-      <c r="C346" s="36"/>
+      <c r="C346" s="35"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
@@ -3374,7 +3369,7 @@
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="35"/>
+      <c r="C348" s="36"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
@@ -3399,7 +3394,7 @@
       <c r="G350" s="4"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A351" s="18"/>
+      <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="35"/>
       <c r="D351" s="4"/>
@@ -3410,23 +3405,23 @@
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
-      <c r="C352" s="36"/>
+      <c r="C352" s="35"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A353" s="4"/>
+      <c r="A353" s="18"/>
       <c r="B353" s="4"/>
-      <c r="C353" s="36"/>
+      <c r="C353" s="35"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A354" s="18"/>
+      <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="36"/>
       <c r="D354" s="4"/>
@@ -3435,7 +3430,7 @@
       <c r="G354" s="4"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A355" s="18"/>
+      <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="36"/>
       <c r="D355" s="4"/>
@@ -3453,7 +3448,7 @@
       <c r="G356" s="4"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A357" s="4"/>
+      <c r="A357" s="18"/>
       <c r="B357" s="4"/>
       <c r="C357" s="36"/>
       <c r="D357" s="4"/>
@@ -3471,9 +3466,9 @@
       <c r="G358" s="4"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A359" s="18"/>
+      <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="35"/>
+      <c r="C359" s="36"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
@@ -3482,7 +3477,7 @@
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="18"/>
       <c r="B360" s="4"/>
-      <c r="C360" s="35"/>
+      <c r="C360" s="36"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
@@ -3518,7 +3513,7 @@
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="18"/>
       <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
+      <c r="C364" s="35"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
@@ -3527,17 +3522,27 @@
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="18"/>
       <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
+      <c r="C365" s="35"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366" s="18"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367" s="18"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
     </row>
@@ -3634,25 +3639,15 @@
       <c r="G390" s="4"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A391" s="18"/>
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="4"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" s="18"/>
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" s="4"/>
+      <c r="A393" s="18"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -3661,7 +3656,7 @@
       <c r="G393" s="4"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" s="4"/>
+      <c r="A394" s="18"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -3670,16 +3665,16 @@
       <c r="G394" s="4"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A395" s="18"/>
+      <c r="A395" s="4"/>
       <c r="B395" s="4"/>
-      <c r="C395" s="36"/>
+      <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A396" s="18"/>
+      <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -3690,7 +3685,7 @@
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="18"/>
       <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
+      <c r="C397" s="36"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
@@ -3760,7 +3755,7 @@
       <c r="G404" s="4"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A405" s="4"/>
+      <c r="A405" s="18"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -3769,6 +3764,8 @@
       <c r="G405" s="4"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A406" s="18"/>
+      <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -3776,6 +3773,8 @@
       <c r="G406" s="4"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407" s="4"/>
+      <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -3895,8 +3894,6 @@
       <c r="G423" s="4"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A424" s="4"/>
-      <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -3904,8 +3901,6 @@
       <c r="G424" s="4"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A425" s="3"/>
-      <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -3914,7 +3909,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
-      <c r="B426" s="3"/>
+      <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -3922,8 +3917,8 @@
       <c r="G426" s="4"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A427" s="4"/>
-      <c r="B427" s="3"/>
+      <c r="A427" s="3"/>
+      <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -3932,7 +3927,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
-      <c r="B428" s="8"/>
+      <c r="B428" s="3"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -3941,7 +3936,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
-      <c r="B429" s="4"/>
+      <c r="B429" s="3"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -3950,7 +3945,7 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
-      <c r="B430" s="4"/>
+      <c r="B430" s="8"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -3986,7 +3981,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
-      <c r="B434" s="8"/>
+      <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -4004,8 +3999,8 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
-      <c r="B436" s="4"/>
-      <c r="C436" s="11"/>
+      <c r="B436" s="8"/>
+      <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
@@ -4013,30 +4008,32 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
-      <c r="B437" s="9"/>
-      <c r="C437" s="11"/>
+      <c r="B437" s="4"/>
+      <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C438" s="4"/>
+      <c r="A438" s="4"/>
+      <c r="B438" s="4"/>
+      <c r="C438" s="11"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C439" s="4"/>
+      <c r="A439" s="4"/>
+      <c r="B439" s="9"/>
+      <c r="C439" s="11"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A440" s="4"/>
-      <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -4044,8 +4041,6 @@
       <c r="G440" s="4"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A441" s="4"/>
-      <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -4053,7 +4048,7 @@
       <c r="G441" s="4"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A442" s="3"/>
+      <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -4062,7 +4057,7 @@
       <c r="G442" s="4"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A443" s="3"/>
+      <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -4080,7 +4075,7 @@
       <c r="G444" s="4"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A445" s="4"/>
+      <c r="A445" s="3"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -4089,7 +4084,7 @@
       <c r="G445" s="4"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A446" s="4"/>
+      <c r="A446" s="3"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -4109,7 +4104,7 @@
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
-      <c r="C448" s="11"/>
+      <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
@@ -4127,7 +4122,7 @@
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
+      <c r="C450" s="11"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
@@ -4172,7 +4167,7 @@
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
-      <c r="C455" s="11"/>
+      <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
@@ -4190,7 +4185,7 @@
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
+      <c r="C457" s="11"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
@@ -4217,7 +4212,7 @@
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
-      <c r="C460" s="11"/>
+      <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
@@ -4226,7 +4221,7 @@
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
-      <c r="C461" s="11"/>
+      <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
@@ -4244,7 +4239,7 @@
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
+      <c r="C463" s="11"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
@@ -4253,7 +4248,7 @@
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
+      <c r="C464" s="11"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
@@ -4269,7 +4264,7 @@
       <c r="G465" s="4"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A466" s="3"/>
+      <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -4278,27 +4273,27 @@
       <c r="G466" s="4"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A467" s="3"/>
+      <c r="A467" s="4"/>
       <c r="B467" s="4"/>
-      <c r="C467" s="35"/>
+      <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A468" s="4"/>
+      <c r="A468" s="3"/>
       <c r="B468" s="4"/>
-      <c r="C468" s="35"/>
+      <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A469" s="4"/>
+      <c r="A469" s="3"/>
       <c r="B469" s="4"/>
-      <c r="C469" s="36"/>
+      <c r="C469" s="35"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
@@ -4307,7 +4302,7 @@
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
-      <c r="C470" s="36"/>
+      <c r="C470" s="35"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
@@ -4334,7 +4329,7 @@
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
-      <c r="C473" s="35"/>
+      <c r="C473" s="36"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
@@ -4361,14 +4356,14 @@
     <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
-      <c r="C476" s="35"/>
+      <c r="C476" s="36"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A477" s="18"/>
+      <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="35"/>
       <c r="D477" s="4"/>
@@ -4377,7 +4372,7 @@
       <c r="G477" s="4"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A478" s="18"/>
+      <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="35"/>
       <c r="D478" s="4"/>
@@ -4387,7 +4382,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="18"/>
-      <c r="B479" s="3"/>
+      <c r="B479" s="4"/>
       <c r="C479" s="35"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -4405,15 +4400,15 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="18"/>
-      <c r="B481" s="4"/>
-      <c r="C481" s="36"/>
+      <c r="B481" s="3"/>
+      <c r="C481" s="35"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A482" s="4"/>
+      <c r="A482" s="18"/>
       <c r="B482" s="4"/>
       <c r="C482" s="35"/>
       <c r="D482" s="4"/>
@@ -4422,9 +4417,9 @@
       <c r="G482" s="4"/>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A483" s="4"/>
+      <c r="A483" s="18"/>
       <c r="B483" s="4"/>
-      <c r="C483" s="35"/>
+      <c r="C483" s="36"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
@@ -4458,7 +4453,7 @@
       <c r="G486" s="4"/>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A487" s="18"/>
+      <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="35"/>
       <c r="D487" s="4"/>
@@ -4467,7 +4462,7 @@
       <c r="G487" s="4"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A488" s="18"/>
+      <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="35"/>
       <c r="D488" s="4"/>
@@ -4483,7 +4478,6 @@
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
-      <c r="H489" s="4"/>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="18"/>
@@ -4493,7 +4487,6 @@
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
-      <c r="H490" s="4"/>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="18"/>
@@ -4518,7 +4511,7 @@
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="18"/>
       <c r="B493" s="4"/>
-      <c r="C493" s="36"/>
+      <c r="C493" s="35"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
@@ -4526,7 +4519,7 @@
       <c r="H493" s="4"/>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A494" s="4"/>
+      <c r="A494" s="18"/>
       <c r="B494" s="4"/>
       <c r="C494" s="35"/>
       <c r="D494" s="4"/>
@@ -4536,9 +4529,9 @@
       <c r="H494" s="4"/>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A495" s="4"/>
+      <c r="A495" s="18"/>
       <c r="B495" s="4"/>
-      <c r="C495" s="4"/>
+      <c r="C495" s="36"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
@@ -4548,7 +4541,7 @@
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
-      <c r="C496" s="4"/>
+      <c r="C496" s="35"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
@@ -4576,7 +4569,7 @@
       <c r="H498" s="4"/>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A499" s="18"/>
+      <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -4586,7 +4579,7 @@
       <c r="H499" s="4"/>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A500" s="18"/>
+      <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -4626,7 +4619,7 @@
       <c r="H503" s="4"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A504" s="4"/>
+      <c r="A504" s="18"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -4636,7 +4629,7 @@
       <c r="H504" s="4"/>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A505" s="4"/>
+      <c r="A505" s="18"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -4686,7 +4679,7 @@
       <c r="H509" s="4"/>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A510" s="44"/>
+      <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -4706,8 +4699,8 @@
       <c r="H511" s="4"/>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A512" s="45"/>
-      <c r="B512" s="3"/>
+      <c r="A512" s="44"/>
+      <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -4716,9 +4709,9 @@
       <c r="H512" s="4"/>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A513" s="3"/>
+      <c r="A513" s="4"/>
       <c r="B513" s="4"/>
-      <c r="C513" s="36"/>
+      <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
@@ -4726,8 +4719,8 @@
       <c r="H513" s="4"/>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A514" s="3"/>
-      <c r="B514" s="9"/>
+      <c r="A514" s="45"/>
+      <c r="B514" s="3"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -4737,8 +4730,8 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
-      <c r="B515" s="9"/>
-      <c r="C515" s="4"/>
+      <c r="B515" s="4"/>
+      <c r="C515" s="36"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
@@ -4746,8 +4739,8 @@
       <c r="H515" s="4"/>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A516" s="4"/>
-      <c r="B516" s="4"/>
+      <c r="A516" s="3"/>
+      <c r="B516" s="9"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -4756,8 +4749,8 @@
       <c r="H516" s="4"/>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A517" s="4"/>
-      <c r="B517" s="4"/>
+      <c r="A517" s="3"/>
+      <c r="B517" s="9"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -4766,7 +4759,7 @@
       <c r="H517" s="4"/>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A518" s="3"/>
+      <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -4776,7 +4769,7 @@
       <c r="H518" s="4"/>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A519" s="3"/>
+      <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -4796,9 +4789,9 @@
       <c r="H520" s="4"/>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A521" s="4"/>
+      <c r="A521" s="3"/>
       <c r="B521" s="4"/>
-      <c r="C521" s="36"/>
+      <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
@@ -4806,9 +4799,9 @@
       <c r="H521" s="4"/>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A522" s="4"/>
+      <c r="A522" s="3"/>
       <c r="B522" s="4"/>
-      <c r="C522" s="36"/>
+      <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
@@ -4858,7 +4851,7 @@
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
-      <c r="C527" s="35"/>
+      <c r="C527" s="36"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
@@ -4866,9 +4859,9 @@
       <c r="H527" s="4"/>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A528" s="18"/>
+      <c r="A528" s="4"/>
       <c r="B528" s="4"/>
-      <c r="C528" s="35"/>
+      <c r="C528" s="36"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
@@ -4876,7 +4869,7 @@
       <c r="H528" s="4"/>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A529" s="18"/>
+      <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="35"/>
       <c r="D529" s="4"/>
@@ -4888,49 +4881,55 @@
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="18"/>
       <c r="B530" s="4"/>
-      <c r="C530" s="26"/>
+      <c r="C530" s="35"/>
       <c r="D530" s="4"/>
+      <c r="E530" s="4"/>
+      <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="18"/>
-      <c r="B531" s="18"/>
-      <c r="C531" s="36"/>
+      <c r="B531" s="4"/>
+      <c r="C531" s="35"/>
       <c r="D531" s="4"/>
+      <c r="E531" s="4"/>
+      <c r="F531" s="4"/>
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A532" s="4"/>
-      <c r="B532" s="18"/>
+      <c r="A532" s="18"/>
+      <c r="B532" s="4"/>
       <c r="C532" s="26"/>
       <c r="D532" s="4"/>
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A533" s="4"/>
+      <c r="A533" s="18"/>
       <c r="B533" s="18"/>
+      <c r="C533" s="36"/>
       <c r="D533" s="4"/>
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A534" s="4"/>
       <c r="B534" s="18"/>
+      <c r="C534" s="26"/>
       <c r="D534" s="4"/>
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A535" s="18"/>
+      <c r="A535" s="4"/>
       <c r="B535" s="18"/>
       <c r="D535" s="4"/>
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A536" s="18"/>
       <c r="B536" s="18"/>
       <c r="D536" s="4"/>
       <c r="G536" s="4"/>
@@ -4944,37 +4943,35 @@
       <c r="H537" s="4"/>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A538" s="18"/>
+      <c r="B538" s="18"/>
       <c r="D538" s="4"/>
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="18"/>
-      <c r="C539" s="28"/>
+      <c r="B539" s="18"/>
       <c r="D539" s="4"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A540" s="18"/>
-      <c r="B540" s="4"/>
-      <c r="C540" s="10"/>
       <c r="D540" s="4"/>
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A541" s="4"/>
-      <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
+      <c r="A541" s="18"/>
+      <c r="C541" s="28"/>
       <c r="D541" s="4"/>
       <c r="G541" s="4"/>
       <c r="H541" s="4"/>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A542" s="4"/>
+      <c r="A542" s="18"/>
       <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
+      <c r="C542" s="10"/>
       <c r="D542" s="4"/>
       <c r="G542" s="4"/>
       <c r="H542" s="4"/>
@@ -5004,7 +5001,7 @@
       <c r="H545" s="4"/>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A546" s="7"/>
+      <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -5012,7 +5009,7 @@
       <c r="H546" s="4"/>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A547" s="3"/>
+      <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -5020,7 +5017,7 @@
       <c r="H547" s="4"/>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A548" s="4"/>
+      <c r="A548" s="7"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -5028,12 +5025,10 @@
       <c r="H548" s="4"/>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A549" s="4"/>
+      <c r="A549" s="3"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
-      <c r="E549" s="4"/>
-      <c r="F549" s="4"/>
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
     </row>
@@ -5042,8 +5037,6 @@
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
-      <c r="E550" s="4"/>
-      <c r="F550" s="4"/>
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
     </row>
@@ -5308,7 +5301,7 @@
       <c r="H576" s="4"/>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A577" s="3"/>
+      <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -5328,7 +5321,7 @@
       <c r="H578" s="4"/>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A579" s="4"/>
+      <c r="A579" s="3"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -5468,7 +5461,7 @@
       <c r="H592" s="4"/>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A593" s="3"/>
+      <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -5488,7 +5481,7 @@
       <c r="H594" s="4"/>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A595" s="4"/>
+      <c r="A595" s="3"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -5588,7 +5581,7 @@
       <c r="H604" s="4"/>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A605" s="3"/>
+      <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -5608,7 +5601,7 @@
       <c r="H606" s="4"/>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A607" s="4"/>
+      <c r="A607" s="3"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -6316,6 +6309,26 @@
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A678" s="4"/>
+      <c r="B678" s="4"/>
+      <c r="C678" s="4"/>
+      <c r="D678" s="4"/>
+      <c r="E678" s="4"/>
+      <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
+      <c r="H678" s="4"/>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A679" s="4"/>
+      <c r="B679" s="4"/>
+      <c r="C679" s="4"/>
+      <c r="D679" s="4"/>
+      <c r="E679" s="4"/>
+      <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
+      <c r="H679" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
